--- a/data/income_statement/1digit/total/R_IS_TOTAL.xlsx
+++ b/data/income_statement/1digit/total/R_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>R-Arts, entertainment and recreation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>R-Arts, entertainment and recreation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1636719.18244</v>
@@ -956,37 +862,42 @@
         <v>1831443.43991</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2329756.81542</v>
+        <v>2336081.02699</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2911659.538360001</v>
+        <v>2921461.92943</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3780227.92437</v>
+        <v>3797313.24365</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4871868.007940001</v>
+        <v>4899982.20773</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5712078.057159999</v>
+        <v>6072008.20947</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5124852.088099999</v>
+        <v>5249961.25429</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>6619918.365150001</v>
+        <v>6619918.365149999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7945600.775590001</v>
+        <v>7978400.88916</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>9021333.145410001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9125763.206250001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7931208.606</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1480861.5141</v>
@@ -995,37 +906,42 @@
         <v>1739599.97473</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2207799.56753</v>
+        <v>2214123.7791</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2764770.369289999</v>
+        <v>2774557.04989</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3585794.769280001</v>
+        <v>3602849.86569</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4711562.15234</v>
+        <v>4739663.26299</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5516951.609680001</v>
+        <v>5868479.97306</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4855992.78086</v>
+        <v>4975189.705139999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>6293632.53145</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>7577592.035050001</v>
+        <v>7607889.292850001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8610866.046820002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8694336.44117</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>7436042.996</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>34432.66144</v>
@@ -1037,16 +953,16 @@
         <v>44171.6172</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>57783.92341</v>
+        <v>57799.63387999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>97527.14341999999</v>
+        <v>97527.14342000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>66532.08190999999</v>
+        <v>66532.08191000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>86857.33912999999</v>
+        <v>86902.71725999999</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>108054.75497</v>
@@ -1055,76 +971,86 @@
         <v>171490.03581</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>169311.58438</v>
+        <v>171493.36026</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>170931.31851</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>179125.95488</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>138273.825</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>121425.0069</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>60933.87436</v>
+        <v>60933.87435999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>77785.63069000001</v>
+        <v>77785.63068999999</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>89105.24566</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>96906.01166999999</v>
+        <v>96936.23453999999</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>93773.77369</v>
+        <v>93786.86283</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>108269.10835</v>
+        <v>116625.51915</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>160804.55227</v>
+        <v>166716.79418</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>154795.79789</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>198697.15616</v>
+        <v>199018.23605</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>239535.7800800001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>252300.8102</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>356891.785</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>6884.840740000001</v>
+        <v>6884.84074</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>7546.35629</v>
+        <v>7546.356290000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>9986.334909999998</v>
+        <v>9986.33491</v>
       </c>
       <c r="F9" s="47" t="n">
         <v>11589.13106</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>16313.44613</v>
+        <v>16315.37749</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>30491.37561</v>
+        <v>30497.08202</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>26984.00658</v>
+        <v>27347.92059</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>44699.74968</v>
@@ -1133,22 +1059,27 @@
         <v>59864.89549999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>99407.3823</v>
+        <v>99417.97998000002</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>120877.41058</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>121052.05119</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>196146.614</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>6291.50479</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6287.29541</v>
+        <v>6287.295410000001</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>8818.870849999999</v>
@@ -1157,13 +1088,13 @@
         <v>10533.8802</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>13507.25404</v>
+        <v>13509.1854</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>24946.92264</v>
+        <v>24952.62905</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>22887.89466000001</v>
+        <v>23180.83514</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>38054.79506</v>
@@ -1172,55 +1103,65 @@
         <v>44819.56983</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>81169.08968</v>
+        <v>81177.11253</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>97987.07236999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>98012.30947000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>160453.57</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>539.0614899999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>997.03144</v>
+        <v>997.0314400000002</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>1032.26439</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>823.05744</v>
+        <v>823.0574399999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2222.938229999999</v>
+        <v>2222.93823</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>2909.68325</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3653.18843</v>
+        <v>3724.16196</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>6239.073530000001</v>
+        <v>6239.07353</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>14398.76879</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>16552.19196</v>
+        <v>16554.76679</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>22417.40667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>22533.79165</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>32967.817</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>54.27446</v>
@@ -1238,7 +1179,7 @@
         <v>583.25386</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2634.76972</v>
+        <v>2634.769720000001</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>442.92349</v>
@@ -1253,13 +1194,18 @@
         <v>1686.10066</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>472.93154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>505.95007</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2725.227</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1629834.3417</v>
@@ -1268,37 +1214,42 @@
         <v>1823897.08362</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2319770.48051</v>
+        <v>2326094.69208</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2900070.4073</v>
+        <v>2909872.79837</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3763914.47824</v>
+        <v>3780997.86616</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4841376.632329999</v>
+        <v>4869485.12571</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5685094.05058</v>
+        <v>6044660.28888</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5080152.338419999</v>
+        <v>5205261.504609999</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>6560053.469649999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7846193.39329</v>
+        <v>7878982.90918</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8900455.734829998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9004711.155059999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7735061.992</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1230246.52078</v>
@@ -1307,37 +1258,42 @@
         <v>1386243.6922</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1615172.83034</v>
+        <v>1623324.81363</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2026591.14419</v>
+        <v>2033431.05305</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2764909.86788</v>
+        <v>2779024.887240001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3508997.122040001</v>
+        <v>3531648.623730001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4262495.42396</v>
+        <v>4548572.003389999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3577727.30892</v>
+        <v>3578025.65932</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>4444247.303479999</v>
+        <v>4444247.30348</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5314101.93537</v>
+        <v>5338174.51869</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6232530.271559999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6294412.219239999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5435920.308</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>27262.85874</v>
@@ -1352,31 +1308,36 @@
         <v>35674.18427000001</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>55960.22153999999</v>
+        <v>55960.22154</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>63491.80416</v>
+        <v>63503.56888000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>69918.86713</v>
+        <v>70413.95271000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>93745.32625</v>
+        <v>93820.08178000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>98959.89558</v>
+        <v>98959.89558000001</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>139802.51107</v>
+        <v>139871.85097</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>206650.50889</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>209064.80581</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>297790.362</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>248886.92363</v>
@@ -1385,76 +1346,86 @@
         <v>163314.50334</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>192015.07815</v>
+        <v>192209.41923</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>220912.52409</v>
+        <v>221179.56288</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>865391.4064999999</v>
+        <v>869910.54119</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>387153.61421</v>
+        <v>387822.6666699999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>444866.4669299999</v>
+        <v>470190.77989</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>589061.8174200001</v>
+        <v>589367.3596</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>769575.5466600001</v>
+        <v>769575.54666</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>717441.01468</v>
+        <v>719294.13049</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>926142.91841</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>939777.64397</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>942983.961</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>952375.8058599998</v>
+        <v>952375.80586</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>1185080.4396</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1390932.38707</v>
+        <v>1398890.02928</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1763582.96586</v>
+        <v>1770155.83593</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1826448.27957</v>
+        <v>1836044.16424</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3050325.78183</v>
+        <v>3072296.46634</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3732431.995709999</v>
+        <v>3992681.6766</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2883187.70438</v>
+        <v>2883220.04294</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>3565901.2393</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4430480.3146</v>
+        <v>4452478.986860001</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5082069.997950001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5126641.906359999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4173247.062</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1720.93255</v>
@@ -1475,64 +1446,74 @@
         <v>8025.92184</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>15278.09419</v>
+        <v>15285.59419</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11732.46087</v>
+        <v>11618.175</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>9810.621939999997</v>
+        <v>9810.621939999999</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>26378.09502</v>
+        <v>26529.55037</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>17666.84631</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>18927.8631</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>21898.923</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>399587.82092</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>437653.39142</v>
+        <v>437653.3914199999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>704597.6501699999</v>
+        <v>702769.8784500001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>873479.2631099999</v>
+        <v>876441.74532</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>999004.61036</v>
+        <v>1001972.97892</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1332379.51029</v>
+        <v>1337836.50198</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1422598.62662</v>
+        <v>1496088.28549</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1502425.0295</v>
+        <v>1627235.84529</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2115806.16617</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2532091.457919999</v>
+        <v>2540808.39049</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2667925.46327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2710298.93582</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2299141.684</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>467158.17873</v>
@@ -1541,43 +1522,48 @@
         <v>566313.36682</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>729670.69194</v>
+        <v>734003.5806600001</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>899625.1476499999</v>
+        <v>905551.9652499999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1080591.72124</v>
+        <v>1088635.60387</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1257733.99391</v>
+        <v>1266834.99312</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1511738.75978</v>
+        <v>1565288.41137</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1479979.70443</v>
+        <v>1758412.26745</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2046807.76958</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2392645.57003</v>
+        <v>2408999.26508</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2430729.97326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2478820.49939</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2207356.319</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>24.42277</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>59.56167</v>
+        <v>59.56167000000001</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>20575.20304</v>
@@ -1586,7 +1572,7 @@
         <v>415.52016</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>834.0847199999999</v>
+        <v>834.0847200000001</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>265.21357</v>
@@ -1595,7 +1581,7 @@
         <v>255.72155</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1094.64743</v>
+        <v>1103.80843</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>232908.96274</v>
@@ -1604,13 +1590,18 @@
         <v>355340.5028900001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>22228.33873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>22291.03209</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3489.053</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>65975.10031000001</v>
@@ -1619,115 +1610,130 @@
         <v>98890.57425000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>95641.19547999999</v>
+        <v>99079.02244</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>132112.46827</v>
+        <v>136951.6962</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>153466.97088</v>
+        <v>159392.76216</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>195253.03367</v>
+        <v>202327.62977</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>227838.59763</v>
+        <v>243442.30711</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>307587.40917</v>
+        <v>307600.11799</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>348192.78358</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>434143.36265</v>
+        <v>434598.94772</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>497775.55567</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>499547.2851</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>591521.072</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>401158.65565</v>
+        <v>401158.6556499999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>467363.2309000001</v>
+        <v>467363.2309</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>613454.29342</v>
+        <v>614349.3551800001</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>767097.15922</v>
+        <v>768184.7488900002</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>926290.66564</v>
+        <v>928408.75699</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1062215.74667</v>
+        <v>1064242.14978</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1283644.4406</v>
+        <v>1321590.38271</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1171297.64783</v>
+        <v>1449708.34103</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1465706.02326</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1603161.70449</v>
+        <v>1619059.81447</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1910726.07886</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1956982.1822</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1612346.194</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-67570.35781</v>
+        <v>-67570.35781000002</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-128659.9754</v>
+        <v>-128659.9754000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-25073.04177000001</v>
+        <v>-31233.70221</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-26145.88454000001</v>
+        <v>-29110.21993</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-81587.11088000002</v>
+        <v>-86662.62495</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>74645.51638000003</v>
+        <v>71001.50886</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-89140.13316000003</v>
+        <v>-69200.12587999999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>22445.32507000005</v>
+        <v>-131176.42216</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>68998.39659</v>
+        <v>68998.39659000002</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>139445.88789</v>
+        <v>131809.1254100001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>237195.49001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>231478.4364300001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>91785.36500000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>226683.91197</v>
@@ -1736,37 +1742,42 @@
         <v>198270.37632</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>190259.90172</v>
+        <v>190340.90026</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>213583.788</v>
+        <v>213841.45143</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>278722.1783499999</v>
+        <v>278850.76235</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>257235.21654</v>
+        <v>258010.23889</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>303910.14045</v>
+        <v>308680.3614</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>366079.27014</v>
+        <v>401347.1086</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>584664.6848200001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1492028.63194</v>
+        <v>1501796.12743</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>978406.47718</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>980344.8949099999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1486189.275</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2690.06843</v>
@@ -1781,16 +1792,16 @@
         <v>4526.23623</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>8186.24514</v>
+        <v>8186.245140000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5740.8546</v>
+        <v>5740.854600000001</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6559.934409999999</v>
+        <v>6559.93441</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>7732.067760000001</v>
+        <v>7732.06776</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>10643.64183</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>10164.48715</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>14803.745</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1263.22423</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>30590.35505000001</v>
+        <v>30590.35505</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>25640.94489000001</v>
+        <v>25640.94489</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>43557.66484</v>
+        <v>43558.28490999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>36161.03202999999</v>
+        <v>36170.46173</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>39963.24919</v>
+        <v>39963.6261</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>59507.35059</v>
+        <v>59507.35058999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>63149.70741</v>
+        <v>64617.59828000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>56746.41508000001</v>
+        <v>59401.01994000001</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>79346.68229000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>133609.67168</v>
+        <v>133646.03435</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>180559.07892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>180689.75948</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>244590.614</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>2225.36571</v>
@@ -1895,16 +1921,16 @@
         <v>2462.55887</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>4346.301060000001</v>
+        <v>4346.30106</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5425.744860000001</v>
+        <v>5526.67058</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>8382.017100000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>7637.455540000001</v>
+        <v>7901.208259999999</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>22281.90588</v>
@@ -1913,19 +1939,24 @@
         <v>37174.3239</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>51819.32319</v>
+        <v>51834.30045</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>72787.38449000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>73164.5634</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>10445.785</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>31202.04162</v>
+        <v>31202.04161999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>26326.70848</v>
@@ -1943,10 +1974,10 @@
         <v>16556.81278</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5913.114140000001</v>
+        <v>6088.532639999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4138.76263</v>
+        <v>4413.1004</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>11727.05259</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>19870.75265</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>13792.138</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>451.10901</v>
@@ -1985,22 +2021,27 @@
         <v>8195.43794</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>5601.45831</v>
+        <v>5601.458310000001</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>41850.44725</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>22535.81837</v>
+        <v>22598.15445</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>15034.93422</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>15037.21571</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>46406.26</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>105486.36415</v>
@@ -2009,37 +2050,42 @@
         <v>74542.60453000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>47446.48209999999</v>
+        <v>47526.86057</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>73947.17170000001</v>
+        <v>74194.91579000001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>90327.42294000002</v>
+        <v>90351.32770000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>100324.33734</v>
+        <v>100366.17369</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>144092.85651</v>
+        <v>145755.07132</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>170145.60778</v>
+        <v>201265.97901</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>289244.9775399999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1010240.37455</v>
+        <v>1011642.3427</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>472869.4701700001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>473479.0260700001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>841612.955</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>138.22685</v>
@@ -2063,7 +2109,7 @@
         <v>615.1960499999999</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>214.56129</v>
+        <v>285.48566</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>206.732</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2185.17847</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>1383.777</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>4.88756</v>
@@ -2113,95 +2164,110 @@
       <c r="M34" s="48" t="n">
         <v>235.66522</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>52632.26936000001</v>
+        <v>52632.26936</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>65208.75512999999</v>
+        <v>65208.75513000001</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>52798.75306</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>57266.81976999999</v>
+        <v>57267.30940999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>80925.1679</v>
+        <v>80928.54451000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>42736.12224999999</v>
+        <v>43469.30824999999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>59662.75755</v>
+        <v>60863.7016</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>95002.81428999999</v>
+        <v>96150.41451999998</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>101357.63509</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>229428.55977</v>
+        <v>237680.4111</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>204699.52589</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>205518.24676</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>313154.001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>73823.77281000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>66275.75624</v>
+        <v>66275.75624000002</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>83109.83297</v>
+        <v>83148.99105</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>84415.18007999999</v>
+        <v>84456.22729</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>147880.4184</v>
+        <v>147962.29734</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>145096.15082</v>
+        <v>145241.18672</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>204991.47653</v>
+        <v>206633.36465</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>220475.01635</v>
+        <v>281471.81694</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>433241.37168</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1226579.88283</v>
+        <v>1226795.50816</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>513211.33614</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>514276.5152500001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>720412.694</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2864.3804</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2546.94909</v>
+        <v>2546.949090000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>6112.154479999999</v>
@@ -2222,19 +2288,24 @@
         <v>3771.64457</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>5820.45196</v>
+        <v>5820.451960000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>8774.87659</v>
+        <v>8774.90559</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>15119.14204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>15240.15966</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>8383.623</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>3060.56197</v>
@@ -2249,34 +2320,39 @@
         <v>4843.20267</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7183.28453</v>
+        <v>7183.284530000002</v>
       </c>
       <c r="H38" s="48" t="n">
         <v>24467.80494</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>9498.34938</v>
+        <v>9875.879870000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11735.83497</v>
+        <v>18280.94131</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>27328.24631</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>48923.80626</v>
+        <v>48994.98275</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>40359.31984</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>40617.51031000001</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>25057.322</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>35.54134</v>
+        <v>35.54134000000001</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>20.00596</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>15.85907</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>451.978</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>53927.12422999999</v>
@@ -2321,37 +2402,42 @@
         <v>49724.03684</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>52078.17408000001</v>
+        <v>52117.33216000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>61193.3384</v>
+        <v>61234.38561</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>128429.98257</v>
+        <v>128511.86151</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>97521.04897999999</v>
+        <v>97568.87696000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>150609.62264</v>
+        <v>151426.25961</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>188636.58068</v>
+        <v>237586.51049</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>368098.10977</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1107835.77105</v>
+        <v>1107945.19977</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>403229.37595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>403902.40665</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>652258.732</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>65.2646</v>
@@ -2375,7 +2461,7 @@
         <v>168.52176</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>366.82354</v>
+        <v>418.21796</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>305.51534</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>2165.09612</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>492.669</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>7.179900000000001</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>13863.72037</v>
@@ -2447,28 +2543,33 @@
         <v>8384.26426</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>18735.31303</v>
+        <v>18832.52095</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>38204.32852000001</v>
+        <v>38652.04918</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>8290.553260000001</v>
+        <v>13740.92328</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>30869.69878</v>
+        <v>30869.69878000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>58527.36661999999</v>
+        <v>58562.35774</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>52322.54311999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>52335.48344</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>33768.37</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>112700.60778</v>
@@ -2477,76 +2578,86 @@
         <v>85554.25148000001</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>126594.15512</v>
+        <v>126620.71271</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>81227.81961999999</v>
+        <v>81469.57889</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>216645.86002</v>
+        <v>217049.35899</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>191352.63476</v>
+        <v>192151.84375</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>308667.36209</v>
+        <v>310383.55892</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>309148.9693599999</v>
+        <v>346871.94086</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>368411.30419</v>
+        <v>368411.3041900001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>765803.0129600001</v>
+        <v>765830.3779200001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>749421.02974</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>750506.8750099998</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1126281.901</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>61635.75097000001</v>
+        <v>61635.75096999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>39623.04411</v>
+        <v>39623.04411000001</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>60412.53113999999</v>
+        <v>60439.08873</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>71457.98393</v>
+        <v>71699.7432</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>119024.7548</v>
+        <v>119428.25377</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>133198.13124</v>
+        <v>133997.34023</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>176079.49408</v>
+        <v>177795.69091</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>189955.75683</v>
+        <v>227678.72833</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>307509.47444</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>505106.1358499999</v>
+        <v>505133.5008100001</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>534042.19971</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>535109.0003699999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>872534.135</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>51064.85681</v>
@@ -2558,13 +2669,13 @@
         <v>66181.62398</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>9769.83569</v>
+        <v>9769.835690000002</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>97621.10522000001</v>
+        <v>97621.10522</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>58154.50352000001</v>
+        <v>58154.50352</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>132587.86801</v>
@@ -2573,97 +2684,112 @@
         <v>119193.21253</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>60901.82975</v>
+        <v>60901.82974999999</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>260696.87711</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>215378.83003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>215397.87464</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>253747.766</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-27410.82643</v>
+        <v>-27410.82642999999</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>-82219.60679999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-44517.12814</v>
+        <v>-50662.50571</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>21794.90375999999</v>
+        <v>18805.42531999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-167391.21095</v>
+        <v>-172823.51893</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-4568.052659999988</v>
+        <v>-8381.282720000003</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-298888.83133</v>
+        <v>-277536.68805</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-141099.3905</v>
+        <v>-358173.07136</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-147989.5944600001</v>
+        <v>-147989.59446</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-360908.3759600001</v>
+        <v>-359020.6332399999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-47030.39868999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-52960.0589200001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-268719.955</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>76274.70666000001</v>
+        <v>76274.70666</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>39926.42356</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>46980.85029000001</v>
+        <v>46981.32406</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>59588.5487</v>
+        <v>59588.56298</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>52725.46337999999</v>
+        <v>52933.62602</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>67184.64735000001</v>
+        <v>67232.44206999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>168790.98733</v>
+        <v>170208.91752</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>234057.65773</v>
+        <v>329281.94663</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>113657.81194</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>273903.37855</v>
+        <v>274138.81307</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1755698.25019</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1756828.80541</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>129243.72</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>42835.31671999999</v>
@@ -2678,16 +2804,16 @@
         <v>780.4421699999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>430.2016800000001</v>
+        <v>431.83811</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>325.49355</v>
+        <v>325.53226</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>6137.56066</v>
+        <v>6153.340230000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3682.630230000001</v>
+        <v>3682.63023</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2578.68725</v>
@@ -2696,52 +2822,62 @@
         <v>2056.07564</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5376.24863</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5376.248630000002</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>6938.366</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>33439.38994</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>39043.54285000001</v>
+        <v>39043.54285</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>46735.21541</v>
+        <v>46735.68918</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>58808.10653</v>
+        <v>58808.12081</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>52295.2617</v>
+        <v>52501.78791000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>66859.1538</v>
+        <v>66906.90980999998</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>162653.42667</v>
+        <v>164055.57729</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>230375.0275</v>
+        <v>325599.3164</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>111079.12469</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>271847.30291</v>
+        <v>272082.73743</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1750322.00156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1751452.55678</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>122305.354</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>79196.91349000001</v>
@@ -2750,37 +2886,42 @@
         <v>27823.36807</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>90745.43899</v>
+        <v>90767.54904000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>42008.55602999999</v>
+        <v>42070.42107</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>37556.89148</v>
+        <v>37640.899</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>103112.8411</v>
+        <v>103159.69875</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>74065.59071</v>
+        <v>74838.57875999999</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>125586.85411</v>
+        <v>157155.15446</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>135252.04456</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>162572.5390099999</v>
+        <v>166209.12074</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>106913.28293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>107541.12975</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>112857.486</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>965.5394399999999</v>
@@ -2804,7 +2945,7 @@
         <v>715.7672899999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3186.65467</v>
+        <v>3187.02547</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1759.80766</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1212.31271</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>4523.872</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>59193.10004</v>
@@ -2831,73 +2977,83 @@
         <v>2459.10158</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>5682.39427</v>
+        <v>5730.14167</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>4189.229110000001</v>
+        <v>4189.22911</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>5959.892309999999</v>
+        <v>5961.064109999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>5913.071680000001</v>
+        <v>5994.435779999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>8614.559600000001</v>
+        <v>8614.642389999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>11446.84221</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9160.699389999998</v>
+        <v>9178.123860000002</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>9193.83965</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>9205.516569999998</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>13553.544</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>19038.27401</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>23602.51837</v>
+        <v>23602.51837000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>86700.50688999999</v>
+        <v>86722.61693999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>35200.25542</v>
+        <v>35214.37306000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>31984.82904</v>
+        <v>32068.83656</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>94871.57250999998</v>
+        <v>94917.25835999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>67436.75173999999</v>
+        <v>68128.37569</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>113785.63984</v>
+        <v>145353.4866</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>122045.39469</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>152513.28936</v>
+        <v>156132.44662</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>96507.13056999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>97123.30047</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>94780.07000000001</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-30333.03326</v>
@@ -2906,37 +3062,42 @@
         <v>-70116.55131</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-88281.71684000001</v>
+        <v>-94448.73069000003</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>39374.89643000002</v>
+        <v>36323.56722999997</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-152222.63905</v>
+        <v>-157530.79191</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-40496.24641000005</v>
+        <v>-44308.53940000002</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-204163.43471</v>
+        <v>-182166.34929</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-32628.58688000002</v>
+        <v>-186046.27919</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-169583.82708</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-249577.5364199999</v>
+        <v>-251090.94091</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1601754.56857</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1596327.61674</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-252333.721</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>26369.07567999999</v>
@@ -2945,73 +3106,81 @@
         <v>21087.43938</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>31861.30354</v>
+        <v>31861.75762</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>41967.97231</v>
+        <v>41978.52626999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>51316.73025000001</v>
+        <v>51327.31245999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>69226.01355999999</v>
+        <v>69242.78337000002</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>60493.49442</v>
+        <v>64587.36955999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>64251.00423999999</v>
+        <v>64251.00424000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>116762.67198</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>185002.25159</v>
+        <v>185555.50742</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>200291.34952</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>201143.47186</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>218915.722</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-56702.10893999998</v>
+        <v>-56702.10894</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-91203.99068999998</v>
+        <v>-91203.99068999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-120143.02038</v>
+        <v>-126310.48831</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-2593.075880000013</v>
+        <v>-5654.959039999993</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-203539.3693</v>
+        <v>-208858.10437</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-109722.25997</v>
+        <v>-113551.32277</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-264656.92913</v>
+        <v>-246753.71885</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-96879.59111999998</v>
+        <v>-250297.28343</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-286346.49906</v>
+        <v>-286346.4990599999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-434579.7880100001</v>
+        <v>-436646.44833</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1401463.21905</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1395184.14488</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-471249.443</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>2587</v>
@@ -3038,34 +3210,37 @@
         <v>2758</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3102</v>
+        <v>3107</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3468</v>
+        <v>3483</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3714</v>
+        <v>3733</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3853</v>
+        <v>3905</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>4078</v>
+        <v>4088</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>4373</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4494</v>
+        <v>4639</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4724</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5023</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>